--- a/outputs-r202/test-g__Eubacterium_H.xlsx
+++ b/outputs-r202/test-g__Eubacterium_H.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Row</t>
   </si>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,14 +116,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,354 +162,354 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.052329288868705338</v>
+        <v>0.052329290999749013</v>
       </c>
       <c r="C2">
-        <v>0.096448582997939597</v>
+        <v>0.096448585097923312</v>
       </c>
       <c r="D2">
-        <v>0.052329288868705283</v>
+        <v>0.052329290999749013</v>
       </c>
       <c r="E2">
-        <v>0.11861202312388509</v>
+        <v>0.11861202517405121</v>
       </c>
       <c r="F2">
-        <v>0.052329288868705318</v>
+        <v>0.052329290999749013</v>
       </c>
       <c r="G2">
-        <v>0.052329288868825666</v>
+        <v>0.05232929099974986</v>
       </c>
       <c r="H2">
-        <v>0.052329288868705283</v>
+        <v>0.05232929099974902</v>
       </c>
       <c r="I2">
-        <v>0.052329288868705304</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="J2">
-        <v>0.052329349716180112</v>
+        <v>0.052329315731538199</v>
       </c>
       <c r="K2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="L2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="M2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="N2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="O2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="P2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="Q2">
-        <v>0.052329288868705366</v>
+        <v>0.052329290999748992</v>
       </c>
       <c r="R2">
-        <v>0.052329288868705387</v>
+        <v>0.052329290999749027</v>
       </c>
       <c r="S2">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="G3">
-        <v>3.6700470506771549e-08</v>
+        <v>7.9775236173768237e-09</v>
       </c>
       <c r="H3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="J3">
-        <v>1.4510475401173934e-05</v>
+        <v>6.9504357198818579e-07</v>
       </c>
       <c r="K3">
-        <v>0.99998545282381734</v>
+        <v>0.99999929697859347</v>
       </c>
       <c r="L3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="N3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="O3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="P3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="R3">
-        <v>2.2204441492600275e-14</v>
+        <v>2.220445957425692e-14</v>
       </c>
       <c r="S3">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="J4">
-        <v>7.8055096978695915e-10</v>
+        <v>1.5515058961356777e-13</v>
       </c>
       <c r="K4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="L4">
-        <v>0.99999999921911586</v>
+        <v>0.99999999999951172</v>
       </c>
       <c r="M4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="N4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="O4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="P4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204460491482755e-14</v>
+        <v>2.2204460492502067e-14</v>
       </c>
       <c r="S4">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="C5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="D5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="E5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="F5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="G5">
-        <v>2.658798720701067e-09</v>
+        <v>1.4569048466782192e-11</v>
       </c>
       <c r="H5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="I5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="J5">
-        <v>0.091031557367101501</v>
+        <v>0.27551026154870817</v>
       </c>
       <c r="K5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="L5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="M5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="N5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="O5">
-        <v>0.90896843997378884</v>
+        <v>0.72448973843641196</v>
       </c>
       <c r="P5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="R5">
-        <v>2.2201461491006507e-14</v>
+        <v>2.2202808566471924e-14</v>
       </c>
       <c r="S5">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="C6">
-        <v>0.024659398792944244</v>
+        <v>0.024991401129664834</v>
       </c>
       <c r="D6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="E6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="F6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="G6">
-        <v>8.2986918773091057e-07</v>
+        <v>1.699147483974298e-07</v>
       </c>
       <c r="H6">
-        <v>0.97533965381152288</v>
+        <v>0.97490926624260965</v>
       </c>
       <c r="I6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="J6">
-        <v>1.1752605664832171e-07</v>
+        <v>9.9162712688431948e-05</v>
       </c>
       <c r="K6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="L6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="M6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="N6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="O6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="P6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="R6">
-        <v>2.2200958592815273e-14</v>
+        <v>2.2200377685797709e-14</v>
       </c>
       <c r="S6">
         <v>7</v>
